--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698363.9118809486</v>
+        <v>705496.0337703024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5152657.751805649</v>
+        <v>5152657.751805648</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>178.161388570787</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,67 +896,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.211223902333169</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>125.2000597604661</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>138.9350621022359</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.74034240511223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="U11" t="n">
         <v>205.5178444382804</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.6816173514498</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,58 +1613,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>108.0109996132921</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1707,7 +1707,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S20" t="n">
-        <v>62.4162677022923</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>138.331445861729</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>14.31642251146669</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,65 +2318,65 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>114.9581870864144</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>155.5825568932142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>78.32097487848365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>220.2131257424249</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>54.00608392545626</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2874,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94451941863394</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>117.530383720924</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.089654531614553</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,67 +3272,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>117.9920762390807</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.48693373137008</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>9.211010870930394</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,46 +3992,46 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>23.37503692583649</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4331,16 +4331,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,13 +4349,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
         <v>431.628992076841</v>
@@ -4367,13 +4367,13 @@
         <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.9408497496568</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C3" t="n">
-        <v>540.9408497496568</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D3" t="n">
-        <v>392.0064400884055</v>
+        <v>36.481881570041</v>
       </c>
       <c r="E3" t="n">
-        <v>392.0064400884055</v>
+        <v>36.481881570041</v>
       </c>
       <c r="F3" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,46 +4413,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>540.9408497496568</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>540.9408497496568</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V3" t="n">
-        <v>540.9408497496568</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W3" t="n">
-        <v>540.9408497496568</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X3" t="n">
-        <v>540.9408497496568</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y3" t="n">
-        <v>540.9408497496568</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4580,7 +4580,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,16 +4601,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4674,22 +4674,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>311.1214714038841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>184.6567645751305</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4814,10 +4814,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4841,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.07469395038575</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C9" t="n">
-        <v>31.07469395038575</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D9" t="n">
-        <v>31.07469395038575</v>
+        <v>156.7798741229775</v>
       </c>
       <c r="E9" t="n">
-        <v>31.07469395038575</v>
+        <v>156.7798741229775</v>
       </c>
       <c r="F9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.792197863116</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>396.792197863116</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5069,22 +5069,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U11" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>396.792197863116</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.792197863116</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5285,10 +5285,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
         <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5701,10 +5701,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5808,25 +5808,25 @@
         <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>124.0418050929216</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D21" t="n">
-        <v>124.0418050929216</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E21" t="n">
-        <v>124.0418050929216</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F21" t="n">
-        <v>124.0418050929216</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>124.0418050929216</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>884.945059673784</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>884.945059673784</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>884.945059673784</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>884.945059673784</v>
       </c>
       <c r="V24" t="n">
-        <v>627.7355178317791</v>
+        <v>884.945059673784</v>
       </c>
       <c r="W24" t="n">
-        <v>384.2867411876791</v>
+        <v>884.945059673784</v>
       </c>
       <c r="X24" t="n">
-        <v>176.4352409821462</v>
+        <v>884.945059673784</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.4352409821462</v>
+        <v>677.1847609088302</v>
       </c>
     </row>
     <row r="25">
@@ -6169,22 +6169,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,28 +6245,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>485.167420504237</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.0774898247174</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C27" t="n">
-        <v>125.0774898247174</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="D27" t="n">
-        <v>125.0774898247174</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="E27" t="n">
-        <v>125.0774898247174</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="F27" t="n">
-        <v>125.0774898247174</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,10 +6315,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>125.0774898247174</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>125.0774898247174</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.0774898247174</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="28">
@@ -6406,16 +6406,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
         <v>829.5248650203655</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6552,7 +6552,7 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>962.092994481713</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>718.6442178376129</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.7812428759814</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C33" t="n">
-        <v>136.7812428759814</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D33" t="n">
-        <v>136.7812428759814</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E33" t="n">
-        <v>136.7812428759814</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>23.41210728356076</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6889,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="E36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>481.618781308658</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.618781308658</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7114,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7312,7 +7312,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7415,7 +7415,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7439,22 +7439,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W42" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y42" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="W42" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X42" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7600,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7652,46 +7652,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>199.2900309704538</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E45" t="n">
-        <v>40.05257596499828</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="F45" t="n">
-        <v>40.05257596499828</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="G45" t="n">
-        <v>40.05257596499828</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7728,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8462,13 +8462,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,13 +8933,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,10 +9255,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9963,13 +9963,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10200,10 +10200,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>303.774711870172</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11154,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,16 +22589,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,10 +22607,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,28 +22623,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>125.2291629185551</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>22.00334012403457</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,10 +22841,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22863,10 +22863,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>107.6005273889592</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>200.5617613011443</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,10 +23033,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,19 +23097,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>6.134150291147961</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.65629044630285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,7 +23163,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>183.6536234539903</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>64.01572075205127</v>
       </c>
       <c r="U11" t="n">
         <v>45.82780846955609</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>40.18065727760452</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>46.48311134337177</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>49.63408084210882</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23941,13 +23941,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S20" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>6.73776653165487</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.91902172502978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.95062675665318</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.83685927415948</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>166.0248129136286</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>32.605133915851</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>58.2293603110402</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,19 +24573,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>126.0561017912447</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="30">
@@ -24762,13 +24762,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>95.83746156275438</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,7 +24816,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>230.8560677307913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,19 +25002,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>40.11469673447691</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>85.30697831980052</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,7 +25050,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>27.07713615430319</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>73.22936823594733</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25406,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>112.0378000911003</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>178.2115505507204</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>42.10035367008034</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25761,10 +25761,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>191.1957620459343</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,7 +25865,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>356.0618809000771</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25919,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>88.86040731065998</v>
+        <v>70.08915250913221</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865232</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457239.5741865234</v>
+        <v>457239.5741865233</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865232</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434088.5858812931</v>
+        <v>434088.5858812932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434088.5858812933</v>
+        <v>434088.5858812932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="C2" t="n">
         <v>157757.6418349316</v>
@@ -26320,16 +26320,16 @@
         <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
+        <v>157757.6418349316</v>
+      </c>
+      <c r="F2" t="n">
         <v>157757.6418349317</v>
       </c>
-      <c r="F2" t="n">
-        <v>157757.6418349316</v>
-      </c>
       <c r="G2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="H2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="I2" t="n">
         <v>166160.6725313324</v>
@@ -26338,7 +26338,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="K2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="L2" t="n">
         <v>166160.6725313324</v>
@@ -26350,7 +26350,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349315</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="P2" t="n">
         <v>157757.6418349316</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2079.650910773868</v>
+        <v>2912.507458497261</v>
       </c>
       <c r="C6" t="n">
-        <v>70953.40749246368</v>
+        <v>71786.26404018707</v>
       </c>
       <c r="D6" t="n">
-        <v>70953.40749246365</v>
+        <v>71786.2640401871</v>
       </c>
       <c r="E6" t="n">
-        <v>104581.0074924637</v>
+        <v>105413.8640401871</v>
       </c>
       <c r="F6" t="n">
-        <v>104581.0074924637</v>
+        <v>105413.8640401871</v>
       </c>
       <c r="G6" t="n">
-        <v>98882.70653348809</v>
+        <v>99760.53543750738</v>
       </c>
       <c r="H6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116745</v>
       </c>
       <c r="I6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116745</v>
       </c>
       <c r="J6" t="n">
-        <v>54839.23861744575</v>
+        <v>55717.06752146514</v>
       </c>
       <c r="K6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116745</v>
       </c>
       <c r="L6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116746</v>
       </c>
       <c r="M6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116745</v>
       </c>
       <c r="N6" t="n">
-        <v>108611.7495076552</v>
+        <v>109489.5784116745</v>
       </c>
       <c r="O6" t="n">
-        <v>104581.0074924636</v>
+        <v>105413.8640401871</v>
       </c>
       <c r="P6" t="n">
-        <v>104581.0074924637</v>
+        <v>105413.8640401871</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,13 +35182,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35425,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,19 +35729,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O15" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35966,7 +35966,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,10 +35975,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>113.3808631277494</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36683,13 +36683,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O30" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="O30" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1784674257276</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37874,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705496.0337703024</v>
+        <v>706280.1797083314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +673,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>19.84004947482878</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
+        <v>186.3732331246961</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>155.1371722699136</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>5.211223902333169</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,58 +1147,58 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>138.9350621022359</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.74034240511223</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>153.6816173514498</v>
+        <v>33.57505181659871</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>12.4761223015106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>92.72704515543269</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>138.331445861729</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2211,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2399,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>86.33905572537007</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.32097487848365</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>54.00608392545626</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>63.64636440614449</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>7.185390953068242</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,73 +2952,73 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>117.530383720924</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>76.78074799938825</v>
       </c>
     </row>
     <row r="34">
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>157.3511119892614</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>31.15099944008764</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>37.80207144472269</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4334,16 +4336,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4413,10 +4415,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4440,19 +4442,19 @@
         <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>412.2910008509983</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>204.697218590109</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4571,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>715.637985778398</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.0442035175087</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4744,31 +4746,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4826,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.7142837842288</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C9" t="n">
-        <v>305.7142837842288</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D9" t="n">
-        <v>156.7798741229775</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E9" t="n">
-        <v>156.7798741229775</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
         <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>392.2505468360198</v>
+        <v>788.1571839989815</v>
       </c>
       <c r="U12" t="n">
-        <v>392.2505468360198</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="V12" t="n">
-        <v>392.2505468360198</v>
+        <v>372.969619477203</v>
       </c>
       <c r="W12" t="n">
-        <v>392.2505468360198</v>
+        <v>372.969619477203</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>372.969619477203</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="G15" t="n">
         <v>220.8643249431123</v>
@@ -5370,7 +5372,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,43 +5603,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>870.3934735354517</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5701,10 +5703,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W20" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C21" t="n">
-        <v>298.4948343740486</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D21" t="n">
-        <v>298.4948343740486</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>298.4948343740486</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5841,10 +5843,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
         <v>231.8830517671884</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>508.9694238887622</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C24" t="n">
-        <v>508.9694238887622</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>508.9694238887622</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>884.945059673784</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>884.945059673784</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>677.1847609088302</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>339.3395341116723</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8865048305452</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D27" t="n">
-        <v>164.8865048305452</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>164.8865048305452</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8865048305452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>164.8865048305452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>899.7678985347327</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>899.7678985347327</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>899.7678985347327</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="Y27" t="n">
-        <v>339.3395341116723</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="C29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="D29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="E29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.4632136343998</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C30" t="n">
-        <v>69.01018435327282</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D30" t="n">
-        <v>69.01018435327282</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6664,7 +6666,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6736,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.5332603973924</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>284.5332603973924</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>284.5332603973924</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
         <v>165.8157010833278</v>
@@ -6789,10 +6791,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.5332603973924</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="34">
@@ -6883,19 +6885,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>30.58726043968704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,22 +7277,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7348,34 +7350,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7497,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>460.9442659510175</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7600,19 +7602,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7652,16 +7654,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E45" t="n">
-        <v>59.01343940088492</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F45" t="n">
-        <v>59.01343940088492</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="46">
@@ -7831,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8462,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9018,10 +9020,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9249,19 +9251,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10905,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11145,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>212.7243290316435</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22559,7 +22561,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9355493385884</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507204</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>125.2291629185551</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22680,19 +22682,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11.39601137995373</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>200.5617613011443</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23066,25 +23068,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>6.134150291147961</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23118,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>75.65629044630285</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>225.8559283604741</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>64.01572075205127</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>46.48311134337177</v>
+        <v>166.5896768782229</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>124.8673948617</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,19 +23819,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>78.95612594840513</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.73776653165487</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>86.36944326294567</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.83685927415948</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.2293603110402</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>36.51146974649865</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845143</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>140.2596746115705</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>95.83746156275438</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>40.11469673447691</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>128.9019477779161</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>73.22936823594733</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,19 +25441,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25533,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>42.10035367008034</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>48.42187321421608</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>355.086939215966</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>109.6429941199161</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.08915250913221</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434088.5858812931</v>
+        <v>434088.5858812932</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434088.5858812932</v>
+        <v>434088.5858812931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434088.5858812932</v>
+        <v>434088.5858812931</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457239.5741865232</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457239.5741865232</v>
+        <v>457239.5741865233</v>
       </c>
     </row>
     <row r="15">
@@ -26323,10 +26325,10 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313323</v>
@@ -26430,28 +26432,28 @@
         <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2912.507458497261</v>
+        <v>2912.50745849721</v>
       </c>
       <c r="C6" t="n">
-        <v>71786.26404018707</v>
+        <v>71786.26404018712</v>
       </c>
       <c r="D6" t="n">
-        <v>71786.2640401871</v>
+        <v>71786.26404018712</v>
       </c>
       <c r="E6" t="n">
         <v>105413.8640401871</v>
@@ -26534,16 +26536,16 @@
         <v>105413.8640401871</v>
       </c>
       <c r="G6" t="n">
-        <v>99760.53543750738</v>
+        <v>99760.5354375075</v>
       </c>
       <c r="H6" t="n">
         <v>109489.5784116745</v>
       </c>
       <c r="I6" t="n">
-        <v>109489.5784116745</v>
+        <v>109489.5784116746</v>
       </c>
       <c r="J6" t="n">
-        <v>55717.06752146514</v>
+        <v>55717.06752146516</v>
       </c>
       <c r="K6" t="n">
         <v>109489.5784116745</v>
@@ -26552,10 +26554,10 @@
         <v>109489.5784116746</v>
       </c>
       <c r="M6" t="n">
-        <v>109489.5784116745</v>
+        <v>109489.5784116746</v>
       </c>
       <c r="N6" t="n">
-        <v>109489.5784116745</v>
+        <v>109489.5784116746</v>
       </c>
       <c r="O6" t="n">
         <v>105413.8640401871</v>
@@ -34702,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35182,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O12" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37865,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>70.5902951096252</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706280.1797083314</v>
+        <v>602047.681444888</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5152657.751805648</v>
+        <v>5152657.751805649</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>186.3732331246961</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155.1371722699136</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.74034240511223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>120.0500723064956</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>111.7860390735628</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>33.57505181659871</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,49 +1618,49 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4761223015106</v>
+        <v>10.82243774959086</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,16 +1937,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.72704515543269</v>
+        <v>79.65980772525465</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,19 +2171,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>86.24876629919689</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.33905572537007</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>63.64636440614449</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>61.68827609322839</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.185390953068242</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G32" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
-        <v>76.78074799938825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3511,67 +3511,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3702,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>157.3511119892614</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3909,58 +3909,58 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>31.15099944008764</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>37.80207144472269</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4336,46 +4336,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U2" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="V2" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4439,10 +4439,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
         <v>431.628992076841</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4573,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4603,10 +4603,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
         <v>431.628992076841</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665.3671633390675</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4831,25 +4831,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
+        <v>670.6884303378189</v>
+      </c>
+      <c r="T8" t="n">
+        <v>670.6884303378189</v>
+      </c>
+      <c r="U8" t="n">
         <v>463.0946480769296</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>463.0946480769296</v>
+      </c>
+      <c r="W8" t="n">
+        <v>463.0946480769296</v>
+      </c>
+      <c r="X8" t="n">
+        <v>463.0946480769296</v>
+      </c>
+      <c r="Y8" t="n">
         <v>255.5008658160403</v>
-      </c>
-      <c r="U8" t="n">
-        <v>47.90708355515102</v>
-      </c>
-      <c r="V8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4892,43 +4892,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3758372163137</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3758372163137</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>504.9216310718023</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>392.0064400884055</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>788.1571839989815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>580.5634017380922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>372.969619477203</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>372.969619477203</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>372.969619477203</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.3758372163137</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>233.4664686820119</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C15" t="n">
-        <v>233.4664686820119</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="D15" t="n">
-        <v>233.4664686820119</v>
+        <v>117.672812000523</v>
       </c>
       <c r="E15" t="n">
-        <v>233.4664686820119</v>
+        <v>117.672812000523</v>
       </c>
       <c r="F15" t="n">
-        <v>233.4664686820119</v>
+        <v>117.672812000523</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,10 +5390,10 @@
         <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>441.0602509429012</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>441.0602509429012</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
         <v>441.0602509429012</v>
@@ -5402,7 +5402,7 @@
         <v>441.0602509429012</v>
       </c>
       <c r="Y15" t="n">
-        <v>233.4664686820119</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>870.3934735354517</v>
+        <v>883.5927032629043</v>
       </c>
       <c r="T18" t="n">
-        <v>668.2068788942177</v>
+        <v>883.5927032629043</v>
       </c>
       <c r="U18" t="n">
-        <v>668.2068788942177</v>
+        <v>883.5927032629043</v>
       </c>
       <c r="V18" t="n">
-        <v>668.2068788942177</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>703.5198450025204</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>703.5198450025204</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="22">
@@ -5931,7 +5931,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>414.6641751762832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>899.7678985347327</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>899.7678985347327</v>
+        <v>901.7457655174762</v>
       </c>
       <c r="T27" t="n">
-        <v>899.7678985347327</v>
+        <v>699.5591708762422</v>
       </c>
       <c r="U27" t="n">
-        <v>671.5442802711217</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="V27" t="n">
-        <v>671.5442802711217</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>671.5442802711217</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>671.5442802711217</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,25 +6645,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,7 +7119,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
         <v>262.7299197543128</v>
@@ -7165,7 +7165,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>460.9442659510175</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7608,13 +7608,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>224.0352098159517</v>
@@ -7633,10 +7633,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7733,46 +7733,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M45" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M45" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7830,7 +7830,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
         <v>16.44142755506243</v>
@@ -7984,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,13 +22603,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>178.2115505507204</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22679,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>39.56814895627872</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.39601137995373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>296.6012590300472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.65629044630285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>85.7229128969819</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>225.8559283604741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>45.85904138183815</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23390,13 +23390,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>166.5896768782229</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>124.8673948617</v>
+        <v>126.5210794136198</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,16 +23825,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>78.95612594840513</v>
+        <v>92.02336337858317</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,19 +24059,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>146.5518208502284</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>86.36944326294567</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.51146974649865</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>109.9948950106094</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>329.5048015845143</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>140.2596746115705</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G32" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
-        <v>128.9019477779161</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25165,7 +25165,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,10 +25359,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>118.3023584998409</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25590,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>48.42187321421608</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,19 +25867,19 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.086939215966</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>109.6429941199161</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472917</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26070,10 +26070,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434088.5858812931</v>
+        <v>434088.5858812932</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434088.5858812931</v>
+        <v>434088.5858812932</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457239.5741865234</v>
+        <v>457239.5741865233</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434088.5858812932</v>
+        <v>434088.5858812933</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434088.5858812932</v>
+        <v>434088.5858812933</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="C2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349315</v>
       </c>
       <c r="D2" t="n">
         <v>157757.6418349316</v>
@@ -26325,13 +26325,13 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
         <v>166160.6725313324</v>
@@ -26435,13 +26435,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26453,7 +26453,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2912.50745849721</v>
+        <v>-9725.654696363265</v>
       </c>
       <c r="C6" t="n">
-        <v>71786.26404018712</v>
+        <v>59148.10188532653</v>
       </c>
       <c r="D6" t="n">
-        <v>71786.26404018712</v>
+        <v>59148.10188532659</v>
       </c>
       <c r="E6" t="n">
-        <v>105413.8640401871</v>
+        <v>92775.70188532661</v>
       </c>
       <c r="F6" t="n">
-        <v>105413.8640401871</v>
+        <v>92775.70188532663</v>
       </c>
       <c r="G6" t="n">
-        <v>99760.5354375075</v>
+        <v>87542.52481746703</v>
       </c>
       <c r="H6" t="n">
-        <v>109489.5784116745</v>
+        <v>97271.56779163406</v>
       </c>
       <c r="I6" t="n">
-        <v>109489.5784116746</v>
+        <v>97271.56779163406</v>
       </c>
       <c r="J6" t="n">
-        <v>55717.06752146516</v>
+        <v>43499.05690142469</v>
       </c>
       <c r="K6" t="n">
-        <v>109489.5784116745</v>
+        <v>97271.56779163412</v>
       </c>
       <c r="L6" t="n">
-        <v>109489.5784116746</v>
+        <v>97271.56779163406</v>
       </c>
       <c r="M6" t="n">
-        <v>109489.5784116746</v>
+        <v>97271.56779163406</v>
       </c>
       <c r="N6" t="n">
-        <v>109489.5784116746</v>
+        <v>97271.56779163412</v>
       </c>
       <c r="O6" t="n">
-        <v>105413.8640401871</v>
+        <v>92775.70188532658</v>
       </c>
       <c r="P6" t="n">
-        <v>105413.8640401871</v>
+        <v>92775.70188532661</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>148.1480627106907</v>
-      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
